--- a/biology/Médecine/Frédéric_Combemale/Frédéric_Combemale.xlsx
+++ b/biology/Médecine/Frédéric_Combemale/Frédéric_Combemale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Combemale</t>
+          <t>Frédéric_Combemale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Frédéric Combemale, né le 29 mai 1860 à Poussan et décédé le 2 octobre 1938 à Lille, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Combemale</t>
+          <t>Frédéric_Combemale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauréat de la Faculté de Médecine de Montpellier en 1881, il devient interne de l'asile d'aliénés de Montpellier en 1884, puis docteur en médecine en 1888 et agrégé en 1889.
 Professeur à la Faculté de médecine de l'Université de Lille en 1893, il est le doyen de la faculté de 1901 à 1919.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Combemale</t>
+          <t>Frédéric_Combemale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches physiologiques et thérapeutiques de l'acétophénone (hypnone), 1886
 La descendance des alcooliques, 1888
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Combemale</t>
+          <t>Frédéric_Combemale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Louis Dulieu, « Combemale (François-Auguste-Frédéric », dans La Médecine à Montpellier, Volume 5, Partie 2.
